--- a/data/trans_orig/P77_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8C0808-9B83-4DB9-AE5A-D52D2E576741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D0D4A6-E00F-4F78-AC3B-BF154A7860CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29967F0E-EAF8-4FDF-BA28-644718E49D2E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{682726BF-7311-4B41-A733-39319CF00BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="230">
   <si>
     <t>Población según cual es el sustentador principal del hogar en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>ADULTO QUE CONTESTA POR EL NIÑO/A</t>
@@ -122,28 +122,28 @@
     <t>82,56%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,28 +155,28 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>46,58%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -191,28 +191,28 @@
     <t>81,47%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>53,42%</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -221,502 +221,508 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
     <t>54,16%</t>
   </si>
   <si>
-    <t>34,87%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>69,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E10BDD-E136-4C5C-8621-0FF27D0C6732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DA940D-27DD-4FC1-9F87-ED1B923878CB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2163,10 +2169,10 @@
         <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2187,13 @@
         <v>174135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>349</v>
@@ -2196,13 +2202,13 @@
         <v>161038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>605</v>
@@ -2211,13 +2217,13 @@
         <v>335172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,7 +2279,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2285,13 +2291,13 @@
         <v>48604</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>210</v>
@@ -2300,13 +2306,13 @@
         <v>132738</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>253</v>
@@ -2315,13 +2321,13 @@
         <v>181342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2342,13 @@
         <v>3501</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2351,13 +2357,13 @@
         <v>8183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2366,13 +2372,13 @@
         <v>11684</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2393,13 @@
         <v>225118</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>241</v>
@@ -2402,13 +2408,13 @@
         <v>134701</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>566</v>
@@ -2417,13 +2423,13 @@
         <v>359819</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,7 +2485,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2491,13 +2497,13 @@
         <v>105513</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>313</v>
@@ -2506,13 +2512,13 @@
         <v>367241</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>378</v>
@@ -2521,13 +2527,13 @@
         <v>472753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2569,7 @@
         <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2572,13 +2578,13 @@
         <v>1401</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2599,13 @@
         <v>522241</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>645</v>
@@ -2608,13 +2614,13 @@
         <v>435562</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>1179</v>
@@ -2623,13 +2629,13 @@
         <v>957803</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,7 +2691,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2697,13 +2703,13 @@
         <v>107301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>551</v>
@@ -2712,13 +2718,13 @@
         <v>456307</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>612</v>
@@ -2727,13 +2733,13 @@
         <v>563607</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2754,13 @@
         <v>2928</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2769,7 +2775,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -2784,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2805,13 @@
         <v>749200</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>511</v>
@@ -2814,13 +2820,13 @@
         <v>412127</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>1210</v>
@@ -2829,13 +2835,13 @@
         <v>1161327</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2909,13 @@
         <v>522659</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>2256</v>
@@ -2918,28 +2924,28 @@
         <v>1749832</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>2586</v>
       </c>
       <c r="N36" s="7">
-        <v>2272491</v>
+        <v>2272490</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2960,13 @@
         <v>9611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -2969,13 +2975,13 @@
         <v>43709</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -2984,13 +2990,13 @@
         <v>53320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3011,13 @@
         <v>2852958</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H38" s="7">
         <v>3090</v>
@@ -3020,13 +3026,13 @@
         <v>2042040</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>6127</v>
@@ -3035,13 +3041,13 @@
         <v>4894998</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3089,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P77_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D0D4A6-E00F-4F78-AC3B-BF154A7860CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07BF00DF-502D-477A-AC8C-53C9B4045340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{682726BF-7311-4B41-A733-39319CF00BA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E45B7BC-FD90-4D21-A207-F05A104FD60A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DA940D-27DD-4FC1-9F87-ED1B923878CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581A3D85-A3BC-4B7D-B7A3-B5E86631A08E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
